--- a/data/nzd0563/nzd0563.xlsx
+++ b/data/nzd0563/nzd0563.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E771"/>
+  <dimension ref="A1:E780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15868,6 +15868,193 @@
         <v>175.3071428571428</v>
       </c>
       <c r="E771" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>178.57</v>
+      </c>
+      <c r="C772" t="inlineStr"/>
+      <c r="D772" t="n">
+        <v>166.4228571428571</v>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:15+00:00</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>187.63</v>
+      </c>
+      <c r="C773" t="n">
+        <v>425.09</v>
+      </c>
+      <c r="D773" t="n">
+        <v>167.92</v>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>190.48</v>
+      </c>
+      <c r="C774" t="n">
+        <v>443.22</v>
+      </c>
+      <c r="D774" t="n">
+        <v>167.5285714285714</v>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>189.56</v>
+      </c>
+      <c r="C775" t="n">
+        <v>431.54</v>
+      </c>
+      <c r="D775" t="n">
+        <v>171.6385714285714</v>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-31 22:00:19+00:00</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>190.42</v>
+      </c>
+      <c r="C776" t="n">
+        <v>441.56</v>
+      </c>
+      <c r="D776" t="n">
+        <v>172.2485714285714</v>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>185.95</v>
+      </c>
+      <c r="C777" t="n">
+        <v>425.92</v>
+      </c>
+      <c r="D777" t="n">
+        <v>166.8171428571429</v>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 21:54:39+00:00</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>191.08</v>
+      </c>
+      <c r="C778" t="n">
+        <v>447.2600000000001</v>
+      </c>
+      <c r="D778" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>190.35</v>
+      </c>
+      <c r="C779" t="n">
+        <v>427.76</v>
+      </c>
+      <c r="D779" t="n">
+        <v>175.1128571428571</v>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>192.51</v>
+      </c>
+      <c r="C780" t="n">
+        <v>426.29</v>
+      </c>
+      <c r="D780" t="n">
+        <v>176.6457142857143</v>
+      </c>
+      <c r="E780" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -15884,7 +16071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B831"/>
+  <dimension ref="A1:B840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24202,6 +24389,96 @@
       </c>
       <c r="B831" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B832" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B835" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>2025-01-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>2025-02-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B839" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B840" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -24364,28 +24641,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2865352041056184</v>
+        <v>-0.2556497501576429</v>
       </c>
       <c r="J2" t="n">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="K2" t="n">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02098236815221666</v>
+        <v>0.01702290352990676</v>
       </c>
       <c r="M2" t="n">
-        <v>12.9847569667045</v>
+        <v>12.98766570786384</v>
       </c>
       <c r="N2" t="n">
-        <v>214.3093944436645</v>
+        <v>213.8035438621389</v>
       </c>
       <c r="O2" t="n">
-        <v>14.63930990325925</v>
+        <v>14.62202256400047</v>
       </c>
       <c r="P2" t="n">
-        <v>182.9184963677358</v>
+        <v>182.6221378429746</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24435,28 +24712,28 @@
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07254920195611153</v>
+        <v>-0.07632649555350988</v>
       </c>
       <c r="J3" t="n">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="K3" t="n">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003174072764666303</v>
+        <v>0.00356284709798238</v>
       </c>
       <c r="M3" t="n">
-        <v>8.484539420111279</v>
+        <v>8.479386023942288</v>
       </c>
       <c r="N3" t="n">
-        <v>95.45463855659385</v>
+        <v>95.17023426363603</v>
       </c>
       <c r="O3" t="n">
-        <v>9.770088973832012</v>
+        <v>9.75552326959636</v>
       </c>
       <c r="P3" t="n">
-        <v>437.0799885067503</v>
+        <v>437.1156984477129</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24506,28 +24783,28 @@
         <v>0.0742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2606412747093926</v>
+        <v>-0.25044931504819</v>
       </c>
       <c r="J4" t="n">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="K4" t="n">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02607212067601261</v>
+        <v>0.0247249252572963</v>
       </c>
       <c r="M4" t="n">
-        <v>9.013682923681671</v>
+        <v>8.925429267926079</v>
       </c>
       <c r="N4" t="n">
-        <v>143.900610519279</v>
+        <v>142.265483819338</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99585805681607</v>
+        <v>11.92750953968757</v>
       </c>
       <c r="P4" t="n">
-        <v>173.0174964300413</v>
+        <v>172.920983362615</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24564,7 +24841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E771"/>
+  <dimension ref="A1:E780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43869,6 +44146,245 @@
         </is>
       </c>
     </row>
+    <row r="772">
+      <c r="A772" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>-39.33608975996911,176.93766919268938</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr"/>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>-39.33662283443846,176.93580954417195</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:15+00:00</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>-39.33617061086683,176.9376826398974</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>-39.33663126908284,176.93582307070622</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>-39.33619604409541,176.93768686998737</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>-39.33662906384201,176.93581953418834</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>-39.3361878340708,176.93768550448422</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>-39.33665221886468,176.93585666763676</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-31 22:00:19+00:00</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>-39.33619550865903,176.9376867809328</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>-39.3366556554971,176.93586217892923</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>-39.33615561864769,176.93768014637243</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>-39.33662505577627,176.9358131065032</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 21:54:39+00:00</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>-39.33620139845928,176.93768776053315</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>-39.33663453670223,176.93582831094838</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>-39.33619488398326,176.93768667703583</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>-39.336671792373735,176.93588805748763</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>-39.33621415969308,176.93768988300118</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>-39.33668042821581,176.93590190671597</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0563/nzd0563.xlsx
+++ b/data/nzd0563/nzd0563.xlsx
@@ -24492,7 +24492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24583,35 +24583,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24664,27 +24669,28 @@
       <c r="P2" t="n">
         <v>182.6221378429746</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (176.9374041599855 -39.33449621116439, 176.9379978588944 -39.33806578689432)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>176.9374041599855</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-39.33449621116439</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>176.9379978588944</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-39.33806578689432</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>176.9377010094399</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-39.33628099902936</v>
       </c>
     </row>
@@ -24735,27 +24741,28 @@
       <c r="P3" t="n">
         <v>437.1156984477129</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (176.93648477096534 -39.33458822915117, 176.93707851525744 -39.33815780276676)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>176.9364847709653</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-39.33458822915117</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>176.9370785152574</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-39.33815780276676</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>176.9367816431114</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-39.33637301595897</v>
       </c>
     </row>
@@ -24806,27 +24813,28 @@
       <c r="P4" t="n">
         <v>172.920983362615</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (176.93430595052536 -39.335685225885015, 176.93791992888504 -39.33793874657172)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>176.9343059505254</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-39.33568522588502</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>176.937919928885</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-39.33793874657172</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>176.9361129397052</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-39.33681198622837</v>
       </c>
     </row>

--- a/data/nzd0563/nzd0563.xlsx
+++ b/data/nzd0563/nzd0563.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E780"/>
+  <dimension ref="A1:E789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16057,6 +16057,193 @@
       <c r="E780" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>175.95</v>
+      </c>
+      <c r="C781" t="inlineStr"/>
+      <c r="D781" t="n">
+        <v>158.7571428571429</v>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:17+00:00</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>184.81</v>
+      </c>
+      <c r="C782" t="n">
+        <v>425.27</v>
+      </c>
+      <c r="D782" t="n">
+        <v>169.5657142857143</v>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>180.79</v>
+      </c>
+      <c r="C783" t="n">
+        <v>430.03</v>
+      </c>
+      <c r="D783" t="n">
+        <v>170.32</v>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>176.35</v>
+      </c>
+      <c r="C784" t="n">
+        <v>441.07</v>
+      </c>
+      <c r="D784" t="n">
+        <v>166.3314285714285</v>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:06+00:00</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="C785" t="n">
+        <v>424.6</v>
+      </c>
+      <c r="D785" t="n">
+        <v>180.2357142857143</v>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>175.37</v>
+      </c>
+      <c r="C786" t="n">
+        <v>429.7600000000001</v>
+      </c>
+      <c r="D786" t="n">
+        <v>165.3442857142857</v>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>172.76</v>
+      </c>
+      <c r="C787" t="n">
+        <v>439.23</v>
+      </c>
+      <c r="D787" t="n">
+        <v>177.4114285714286</v>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>169.94</v>
+      </c>
+      <c r="C788" t="n">
+        <v>432.97</v>
+      </c>
+      <c r="D788" t="n">
+        <v>173.5742857142857</v>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:07+00:00</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>170.49</v>
+      </c>
+      <c r="C789" t="n">
+        <v>433.39</v>
+      </c>
+      <c r="D789" t="n">
+        <v>172.2971428571429</v>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -16071,7 +16258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B840"/>
+  <dimension ref="A1:B849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24479,6 +24666,96 @@
       </c>
       <c r="B840" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B841" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B847" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B848" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B849" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -24646,28 +24923,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2556497501576429</v>
+        <v>-0.2542690533963555</v>
       </c>
       <c r="J2" t="n">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="K2" t="n">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01702290352990676</v>
+        <v>0.01723714435158974</v>
       </c>
       <c r="M2" t="n">
-        <v>12.98766570786384</v>
+        <v>12.87422557498616</v>
       </c>
       <c r="N2" t="n">
-        <v>213.8035438621389</v>
+        <v>211.3971721799578</v>
       </c>
       <c r="O2" t="n">
-        <v>14.62202256400047</v>
+        <v>14.53950384916754</v>
       </c>
       <c r="P2" t="n">
-        <v>182.6221378429746</v>
+        <v>182.6089217083804</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24718,28 +24995,28 @@
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07632649555350988</v>
+        <v>-0.08329838348560534</v>
       </c>
       <c r="J3" t="n">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="K3" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00356284709798238</v>
+        <v>0.004319294797387796</v>
       </c>
       <c r="M3" t="n">
-        <v>8.479386023942288</v>
+        <v>8.438928407988415</v>
       </c>
       <c r="N3" t="n">
-        <v>95.17023426363603</v>
+        <v>94.4720188572731</v>
       </c>
       <c r="O3" t="n">
-        <v>9.75552326959636</v>
+        <v>9.719671746374623</v>
       </c>
       <c r="P3" t="n">
-        <v>437.1156984477129</v>
+        <v>437.1821453149515</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24790,28 +25067,28 @@
         <v>0.0742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.25044931504819</v>
+        <v>-0.2405582969305885</v>
       </c>
       <c r="J4" t="n">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="K4" t="n">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0247249252572963</v>
+        <v>0.023355416345199</v>
       </c>
       <c r="M4" t="n">
-        <v>8.925429267926079</v>
+        <v>8.867458983235561</v>
       </c>
       <c r="N4" t="n">
-        <v>142.265483819338</v>
+        <v>141.0207232757224</v>
       </c>
       <c r="O4" t="n">
-        <v>11.92750953968757</v>
+        <v>11.87521466230074</v>
       </c>
       <c r="P4" t="n">
-        <v>172.920983362615</v>
+        <v>172.8265706252964</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24849,7 +25126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E780"/>
+  <dimension ref="A1:E789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44393,6 +44670,245 @@
         </is>
       </c>
     </row>
+    <row r="781">
+      <c r="A781" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>-39.33606637924519,176.93766530398963</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr"/>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>-39.33657964710023,176.93574028526922</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:17+00:00</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>-39.33614544535605,176.9376784543384</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>-39.33664054075097,176.935837939572</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>-39.3361095711166,176.93767248769703</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>-39.33664479026483,176.9358447544701</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>-39.33606994882138,176.93766589768407</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>-39.33662231934562,176.93580871812415</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:06+00:00</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>-39.336134647388526,176.93767665840824</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>-39.336700653624405,176.9359343420608</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>-39.336061203359705,176.93766444313292</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>-39.33661675795216,176.9357997993902</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>-39.336037911874776,176.93766056927947</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>-39.336684742112006,176.93590882487788</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>-39.33601274636195,176.93765638374032</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>-39.336663124336546,176.93587415663458</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:07+00:00</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>-39.336017654529385,176.93765720006857</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>-39.336655929139944,176.93586261776753</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0563/nzd0563.xlsx
+++ b/data/nzd0563/nzd0563.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E789"/>
+  <dimension ref="A1:E792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16242,6 +16242,69 @@
         <v>172.2971428571429</v>
       </c>
       <c r="E789" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:47+00:00</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>164.37</v>
+      </c>
+      <c r="C790" t="n">
+        <v>440.56</v>
+      </c>
+      <c r="D790" t="n">
+        <v>190.2385714285714</v>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:53+00:00</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>165.28</v>
+      </c>
+      <c r="C791" t="n">
+        <v>443.47</v>
+      </c>
+      <c r="D791" t="n">
+        <v>189.9457142857143</v>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>155.21</v>
+      </c>
+      <c r="C792" t="n">
+        <v>421.6</v>
+      </c>
+      <c r="D792" t="n">
+        <v>177.1142857142857</v>
+      </c>
+      <c r="E792" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16258,7 +16321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B849"/>
+  <dimension ref="A1:B852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24756,6 +24819,36 @@
       </c>
       <c r="B849" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B850" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B851" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B852" t="n">
+        <v>-0.79</v>
       </c>
     </row>
   </sheetData>
@@ -24923,28 +25016,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2542690533963555</v>
+        <v>-0.2655540771963696</v>
       </c>
       <c r="J2" t="n">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="K2" t="n">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01723714435158974</v>
+        <v>0.01884125263936509</v>
       </c>
       <c r="M2" t="n">
-        <v>12.87422557498616</v>
+        <v>12.87812150035309</v>
       </c>
       <c r="N2" t="n">
-        <v>211.3971721799578</v>
+        <v>211.4613540058018</v>
       </c>
       <c r="O2" t="n">
-        <v>14.53950384916754</v>
+        <v>14.54171083489841</v>
       </c>
       <c r="P2" t="n">
-        <v>182.6089217083804</v>
+        <v>182.7189373343469</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24995,28 +25088,28 @@
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08329838348560534</v>
+        <v>-0.08316050884885687</v>
       </c>
       <c r="J3" t="n">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="K3" t="n">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004319294797387796</v>
+        <v>0.004322975974113463</v>
       </c>
       <c r="M3" t="n">
-        <v>8.438928407988415</v>
+        <v>8.442284412153123</v>
       </c>
       <c r="N3" t="n">
-        <v>94.4720188572731</v>
+        <v>94.46997134503873</v>
       </c>
       <c r="O3" t="n">
-        <v>9.719671746374623</v>
+        <v>9.719566417543467</v>
       </c>
       <c r="P3" t="n">
-        <v>437.1821453149515</v>
+        <v>437.1808664648315</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25067,28 +25160,28 @@
         <v>0.0742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2405582969305885</v>
+        <v>-0.2245174328054187</v>
       </c>
       <c r="J4" t="n">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="K4" t="n">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="L4" t="n">
-        <v>0.023355416345199</v>
+        <v>0.02032761378404213</v>
       </c>
       <c r="M4" t="n">
-        <v>8.867458983235561</v>
+        <v>8.889194787844648</v>
       </c>
       <c r="N4" t="n">
-        <v>141.0207232757224</v>
+        <v>142.204609408284</v>
       </c>
       <c r="O4" t="n">
-        <v>11.87521466230074</v>
+        <v>11.92495741746209</v>
       </c>
       <c r="P4" t="n">
-        <v>172.8265706252964</v>
+        <v>172.6725330174949</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25126,7 +25219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E789"/>
+  <dimension ref="A1:E792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44909,6 +45002,87 @@
         </is>
       </c>
     </row>
+    <row r="790">
+      <c r="A790" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:47+00:00</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>-39.335963040011045,176.93764811656936</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>-39.33675700785347,176.93602471712217</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:53+00:00</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>-39.335971160797385,176.93764946721927</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>-39.33675535795214,176.9360220711779</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>-39.335881296708955,176.9376345210382</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>-39.33668306806279,176.93590614021795</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0563/nzd0563.xlsx
+++ b/data/nzd0563/nzd0563.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E792"/>
+  <dimension ref="A1:E794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16305,6 +16305,48 @@
         <v>177.1142857142857</v>
       </c>
       <c r="E792" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>165.71</v>
+      </c>
+      <c r="C793" t="n">
+        <v>445.61</v>
+      </c>
+      <c r="D793" t="n">
+        <v>147.8042857142857</v>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>159.45</v>
+      </c>
+      <c r="C794" t="n">
+        <v>425.99</v>
+      </c>
+      <c r="D794" t="n">
+        <v>134.5842857142857</v>
+      </c>
+      <c r="E794" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16321,7 +16363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B852"/>
+  <dimension ref="A1:B854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24849,6 +24891,26 @@
       </c>
       <c r="B852" t="n">
         <v>-0.79</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B853" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B854" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -25016,28 +25078,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2655540771963696</v>
+        <v>-0.2724494910446327</v>
       </c>
       <c r="J2" t="n">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K2" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01884125263936509</v>
+        <v>0.01987215072081983</v>
       </c>
       <c r="M2" t="n">
-        <v>12.87812150035309</v>
+        <v>12.8776562503572</v>
       </c>
       <c r="N2" t="n">
-        <v>211.4613540058018</v>
+        <v>211.385829097911</v>
       </c>
       <c r="O2" t="n">
-        <v>14.54171083489841</v>
+        <v>14.53911376590441</v>
       </c>
       <c r="P2" t="n">
-        <v>182.7189373343469</v>
+        <v>182.7863274703473</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25088,28 +25150,28 @@
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08316050884885687</v>
+        <v>-0.08273951553394517</v>
       </c>
       <c r="J3" t="n">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K3" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004322975974113463</v>
+        <v>0.004290868335597775</v>
       </c>
       <c r="M3" t="n">
-        <v>8.442284412153123</v>
+        <v>8.446819983092945</v>
       </c>
       <c r="N3" t="n">
-        <v>94.46997134503873</v>
+        <v>94.4773090715133</v>
       </c>
       <c r="O3" t="n">
-        <v>9.719566417543467</v>
+        <v>9.719943882117494</v>
       </c>
       <c r="P3" t="n">
-        <v>437.1808664648315</v>
+        <v>437.1768392165557</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25160,28 +25222,28 @@
         <v>0.0742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2245174328054187</v>
+        <v>-0.2388117229858626</v>
       </c>
       <c r="J4" t="n">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K4" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02032761378404213</v>
+        <v>0.02273813236068656</v>
       </c>
       <c r="M4" t="n">
-        <v>8.889194787844648</v>
+        <v>8.962023970947333</v>
       </c>
       <c r="N4" t="n">
-        <v>142.204609408284</v>
+        <v>143.8995477439395</v>
       </c>
       <c r="O4" t="n">
-        <v>11.92495741746209</v>
+        <v>11.99581375913862</v>
       </c>
       <c r="P4" t="n">
-        <v>172.6725330174949</v>
+        <v>172.8101980281374</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25219,7 +25281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E792"/>
+  <dimension ref="A1:E794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28390,7 +28452,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-39.33610296740081,176.9376713893609</t>
+          <t>-39.336102967400805,176.9376713893609</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -41773,7 +41835,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>-39.33667911634058,176.93589980287211</t>
+          <t>-39.33667911634057,176.93589980287211</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -45078,6 +45140,60 @@
         </is>
       </c>
       <c r="E792" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>-39.335974998092006,176.9376501054386</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>-39.33651794047532,176.9356413275311</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>-39.33591913422047,176.93764081416123</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>-39.3364434610096,176.93552188666084</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0563/nzd0563.xlsx
+++ b/data/nzd0563/nzd0563.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E794"/>
+  <dimension ref="A1:E796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16349,6 +16349,48 @@
       <c r="E794" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>166.76</v>
+      </c>
+      <c r="C795" t="n">
+        <v>445.71</v>
+      </c>
+      <c r="D795" t="n">
+        <v>168.5157142857143</v>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>161.47</v>
+      </c>
+      <c r="C796" t="n">
+        <v>444.94</v>
+      </c>
+      <c r="D796" t="n">
+        <v>140.78</v>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -16363,7 +16405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B854"/>
+  <dimension ref="A1:B856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24911,6 +24953,26 @@
       </c>
       <c r="B854" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B855" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B856" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -25078,28 +25140,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2724494910446327</v>
+        <v>-0.278452695452191</v>
       </c>
       <c r="J2" t="n">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="K2" t="n">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01987215072081983</v>
+        <v>0.02081266132592208</v>
       </c>
       <c r="M2" t="n">
-        <v>12.8776562503572</v>
+        <v>12.87263423464442</v>
       </c>
       <c r="N2" t="n">
-        <v>211.385829097911</v>
+        <v>211.187607188935</v>
       </c>
       <c r="O2" t="n">
-        <v>14.53911376590441</v>
+        <v>14.53229531729021</v>
       </c>
       <c r="P2" t="n">
-        <v>182.7863274703473</v>
+        <v>182.8450878618217</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25150,28 +25212,28 @@
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08273951553394517</v>
+        <v>-0.07704348029116316</v>
       </c>
       <c r="J3" t="n">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="K3" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004290868335597775</v>
+        <v>0.003731314431140831</v>
       </c>
       <c r="M3" t="n">
-        <v>8.446819983092945</v>
+        <v>8.455398569034843</v>
       </c>
       <c r="N3" t="n">
-        <v>94.4773090715133</v>
+        <v>94.51039732464049</v>
       </c>
       <c r="O3" t="n">
-        <v>9.719943882117494</v>
+        <v>9.721645813577066</v>
       </c>
       <c r="P3" t="n">
-        <v>437.1768392165557</v>
+        <v>437.1218194436926</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25222,28 +25284,28 @@
         <v>0.0742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2388117229858626</v>
+        <v>-0.2454439568668367</v>
       </c>
       <c r="J4" t="n">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="K4" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02273813236068656</v>
+        <v>0.0239615510460286</v>
       </c>
       <c r="M4" t="n">
-        <v>8.962023970947333</v>
+        <v>8.987942811956692</v>
       </c>
       <c r="N4" t="n">
-        <v>143.8995477439395</v>
+        <v>144.4806040241375</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99581375913862</v>
+        <v>12.02000848685796</v>
       </c>
       <c r="P4" t="n">
-        <v>172.8101980281374</v>
+        <v>172.8741741563214</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25281,7 +25343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E794"/>
+  <dimension ref="A1:E796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45199,6 +45261,60 @@
         </is>
       </c>
     </row>
+    <row r="795">
+      <c r="A795" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>-39.335984368230015,176.9376516638815</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>-39.33663462523378,176.9358284529254</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>-39.33593716058178,176.93764381230304</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>-39.336478366736856,176.9355778640507</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0563/nzd0563.xlsx
+++ b/data/nzd0563/nzd0563.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E796"/>
+  <dimension ref="A1:E798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16391,6 +16391,48 @@
       <c r="E796" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>163.25</v>
+      </c>
+      <c r="C797" t="n">
+        <v>441.94</v>
+      </c>
+      <c r="D797" t="n">
+        <v>158.7142857142857</v>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>163.58</v>
+      </c>
+      <c r="C798" t="n">
+        <v>441.95</v>
+      </c>
+      <c r="D798" t="n">
+        <v>159.85</v>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -16405,7 +16447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B856"/>
+  <dimension ref="A1:B858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24973,6 +25015,26 @@
       </c>
       <c r="B856" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B857" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B858" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -25140,28 +25202,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.278452695452191</v>
+        <v>-0.2847587278393841</v>
       </c>
       <c r="J2" t="n">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="K2" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02081266132592208</v>
+        <v>0.0218213086592246</v>
       </c>
       <c r="M2" t="n">
-        <v>12.87263423464442</v>
+        <v>12.86890394474575</v>
       </c>
       <c r="N2" t="n">
-        <v>211.187607188935</v>
+        <v>211.0092017366991</v>
       </c>
       <c r="O2" t="n">
-        <v>14.53229531729021</v>
+        <v>14.52615577972022</v>
       </c>
       <c r="P2" t="n">
-        <v>182.8450878618217</v>
+        <v>182.9071284843019</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25212,28 +25274,28 @@
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07704348029116316</v>
+        <v>-0.07326475724835614</v>
       </c>
       <c r="J3" t="n">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="K3" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003731314431140831</v>
+        <v>0.003390199378259462</v>
       </c>
       <c r="M3" t="n">
-        <v>8.455398569034843</v>
+        <v>8.452054877527893</v>
       </c>
       <c r="N3" t="n">
-        <v>94.51039732464049</v>
+        <v>94.35894852446242</v>
       </c>
       <c r="O3" t="n">
-        <v>9.721645813577066</v>
+        <v>9.713853433342631</v>
       </c>
       <c r="P3" t="n">
-        <v>437.1218194436926</v>
+        <v>437.08512053027</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25284,28 +25346,28 @@
         <v>0.0742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2454439568668367</v>
+        <v>-0.2494395185177415</v>
       </c>
       <c r="J4" t="n">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="K4" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0239615510460286</v>
+        <v>0.02484688495610909</v>
       </c>
       <c r="M4" t="n">
-        <v>8.987942811956692</v>
+        <v>8.98894945833155</v>
       </c>
       <c r="N4" t="n">
-        <v>144.4806040241375</v>
+        <v>144.2000620873216</v>
       </c>
       <c r="O4" t="n">
-        <v>12.02000848685796</v>
+        <v>12.00833302699928</v>
       </c>
       <c r="P4" t="n">
-        <v>172.8741741563214</v>
+        <v>172.9129118496998</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25343,7 +25405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E796"/>
+  <dimension ref="A1:E798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45315,6 +45377,60 @@
         </is>
       </c>
     </row>
+    <row r="797">
+      <c r="A797" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>-39.33595304519704,176.93764645423155</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>-39.3365794056502,176.9357398980598</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>-39.33595599009759,176.93764694402745</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>-39.336585804075405,176.93575015911063</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0563/nzd0563.xlsx
+++ b/data/nzd0563/nzd0563.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E798"/>
+  <dimension ref="A1:E801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16431,6 +16431,69 @@
         <v>159.85</v>
       </c>
       <c r="E798" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>165.46</v>
+      </c>
+      <c r="C799" t="n">
+        <v>426.05</v>
+      </c>
+      <c r="D799" t="n">
+        <v>159.9857142857143</v>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>160.92</v>
+      </c>
+      <c r="C800" t="n">
+        <v>422.6</v>
+      </c>
+      <c r="D800" t="n">
+        <v>159.6914285714286</v>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:35+00:00</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>174.47</v>
+      </c>
+      <c r="C801" t="n">
+        <v>447.2</v>
+      </c>
+      <c r="D801" t="n">
+        <v>172.8814285714286</v>
+      </c>
+      <c r="E801" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16447,7 +16510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B858"/>
+  <dimension ref="A1:B861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25035,6 +25098,36 @@
       </c>
       <c r="B858" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B859" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>2025-08-20 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B860" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B861" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -25202,28 +25295,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2847587278393841</v>
+        <v>-0.2913462151920241</v>
       </c>
       <c r="J2" t="n">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0218213086592246</v>
+        <v>0.02295907706468037</v>
       </c>
       <c r="M2" t="n">
-        <v>12.86890394474575</v>
+        <v>12.84842079955135</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0092017366991</v>
+        <v>210.5589528692606</v>
       </c>
       <c r="O2" t="n">
-        <v>14.52615577972022</v>
+        <v>14.51064963636227</v>
       </c>
       <c r="P2" t="n">
-        <v>182.9071284843019</v>
+        <v>182.9721983376702</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25274,28 +25367,28 @@
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07326475724835614</v>
+        <v>-0.07592273072612279</v>
       </c>
       <c r="J3" t="n">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003390199378259462</v>
+        <v>0.003648726128885893</v>
       </c>
       <c r="M3" t="n">
-        <v>8.452054877527893</v>
+        <v>8.463797250623866</v>
       </c>
       <c r="N3" t="n">
-        <v>94.35894852446242</v>
+        <v>94.51878063758097</v>
       </c>
       <c r="O3" t="n">
-        <v>9.713853433342631</v>
+        <v>9.722076971387388</v>
       </c>
       <c r="P3" t="n">
-        <v>437.08512053027</v>
+        <v>437.1110022061137</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25346,28 +25439,28 @@
         <v>0.0742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2494395185177415</v>
+        <v>-0.2512773259506497</v>
       </c>
       <c r="J4" t="n">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02484688495610909</v>
+        <v>0.02539349510456113</v>
       </c>
       <c r="M4" t="n">
-        <v>8.98894945833155</v>
+        <v>8.980721465842507</v>
       </c>
       <c r="N4" t="n">
-        <v>144.2000620873216</v>
+        <v>143.7404322304014</v>
       </c>
       <c r="O4" t="n">
-        <v>12.00833302699928</v>
+        <v>11.98917979806798</v>
       </c>
       <c r="P4" t="n">
-        <v>172.9129118496998</v>
+        <v>172.9307808440759</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25405,7 +25498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E798"/>
+  <dimension ref="A1:E801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45431,6 +45524,87 @@
         </is>
       </c>
     </row>
+    <row r="799">
+      <c r="A799" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>-39.33597276710675,176.93764973438084</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>-39.33658656866703,176.93575138527405</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>-39.3359322524141,176.93764299597711</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>-39.33658491071044,176.9357487264355</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:35+00:00</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>-39.33605317181321,176.93766310732101</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>-39.33665922090231,176.9358678967344</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0563/nzd0563.xlsx
+++ b/data/nzd0563/nzd0563.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E801"/>
+  <dimension ref="A1:E802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16496,6 +16496,27 @@
       <c r="E801" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:24+00:00</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>174.23</v>
+      </c>
+      <c r="C802" t="n">
+        <v>452.07</v>
+      </c>
+      <c r="D802" t="n">
+        <v>164.78</v>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -16510,7 +16531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B861"/>
+  <dimension ref="A1:B862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25128,6 +25149,16 @@
       </c>
       <c r="B861" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B862" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -25295,28 +25326,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2913462151920241</v>
+        <v>-0.2916402014386478</v>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K2" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02295907706468037</v>
+        <v>0.02306658366524006</v>
       </c>
       <c r="M2" t="n">
-        <v>12.84842079955135</v>
+        <v>12.83194697919778</v>
       </c>
       <c r="N2" t="n">
-        <v>210.5589528692606</v>
+        <v>210.2662814574884</v>
       </c>
       <c r="O2" t="n">
-        <v>14.51064963636227</v>
+        <v>14.50056141869991</v>
       </c>
       <c r="P2" t="n">
-        <v>182.9721983376702</v>
+        <v>182.9751116820782</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25367,28 +25398,28 @@
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07592273072612279</v>
+        <v>-0.07125373608710645</v>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K3" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003648726128885893</v>
+        <v>0.003209550366111258</v>
       </c>
       <c r="M3" t="n">
-        <v>8.463797250623866</v>
+        <v>8.479130774642428</v>
       </c>
       <c r="N3" t="n">
-        <v>94.51878063758097</v>
+        <v>94.81604343024685</v>
       </c>
       <c r="O3" t="n">
-        <v>9.722076971387388</v>
+        <v>9.737352999159826</v>
       </c>
       <c r="P3" t="n">
-        <v>437.1110022061137</v>
+        <v>437.0653082345491</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25439,28 +25470,28 @@
         <v>0.0742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2512773259506497</v>
+        <v>-0.2517165140873489</v>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K4" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02539349510456113</v>
+        <v>0.0255538040213098</v>
       </c>
       <c r="M4" t="n">
-        <v>8.980721465842507</v>
+        <v>8.970246835580973</v>
       </c>
       <c r="N4" t="n">
-        <v>143.7404322304014</v>
+        <v>143.5274533846397</v>
       </c>
       <c r="O4" t="n">
-        <v>11.98917979806798</v>
+        <v>11.98029437804596</v>
       </c>
       <c r="P4" t="n">
-        <v>172.9307808440759</v>
+        <v>172.9350703981996</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25498,7 +25529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E801"/>
+  <dimension ref="A1:E802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45605,6 +45636,33 @@
         </is>
       </c>
     </row>
+    <row r="802">
+      <c r="A802" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:24+00:00</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>-39.33605103006747,176.93766275110457</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>-39.33661357886294,176.93579470112755</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0563/nzd0563.xlsx
+++ b/data/nzd0563/nzd0563.xlsx
@@ -25320,7 +25320,7 @@
         <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1756</v>
+        <v>0.175</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
@@ -25392,10 +25392,10 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0323</v>
+        <v>0.0319</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0.1091</v>
       </c>
       <c r="I3" t="n">
         <v>-0.07125373608710653</v>
@@ -25464,10 +25464,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0624</v>
+        <v>0.0634</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0742</v>
+        <v>0.0743</v>
       </c>
       <c r="I4" t="n">
         <v>-0.2517026171486855</v>

--- a/data/nzd0563/nzd0563.xlsx
+++ b/data/nzd0563/nzd0563.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E802"/>
+  <dimension ref="A1:E804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16517,6 +16517,48 @@
       <c r="E802" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-30 22:00:32+00:00</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>193.07</v>
+      </c>
+      <c r="C803" t="n">
+        <v>441.99</v>
+      </c>
+      <c r="D803" t="n">
+        <v>178.98</v>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-07 22:00:37+00:00</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>186.18</v>
+      </c>
+      <c r="C804" t="n">
+        <v>439.71</v>
+      </c>
+      <c r="D804" t="n">
+        <v>165.15</v>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -16531,7 +16573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B862"/>
+  <dimension ref="A1:B864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25159,6 +25201,26 @@
       </c>
       <c r="B862" t="n">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>2025-10-30 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B863" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>2025-11-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B864" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -25326,28 +25388,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2916402014386478</v>
+        <v>-0.2842454668213929</v>
       </c>
       <c r="J2" t="n">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="K2" t="n">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02306658366524006</v>
+        <v>0.0219970805175389</v>
       </c>
       <c r="M2" t="n">
-        <v>12.83194697919777</v>
+        <v>12.8384401880816</v>
       </c>
       <c r="N2" t="n">
-        <v>210.2662814574884</v>
+        <v>210.2783571898185</v>
       </c>
       <c r="O2" t="n">
-        <v>14.50056141869991</v>
+        <v>14.50097780116288</v>
       </c>
       <c r="P2" t="n">
-        <v>182.9751116820782</v>
+        <v>182.9013155732871</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25392,34 +25454,34 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0319</v>
+        <v>0.032</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1091</v>
+        <v>0.1099</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07125373608710653</v>
+        <v>-0.06812479962839607</v>
       </c>
       <c r="J3" t="n">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="K3" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003209550366111369</v>
+        <v>0.002949085981630239</v>
       </c>
       <c r="M3" t="n">
-        <v>8.479130774642428</v>
+        <v>8.471729992863199</v>
       </c>
       <c r="N3" t="n">
-        <v>94.81604343024684</v>
+        <v>94.62427663072127</v>
       </c>
       <c r="O3" t="n">
-        <v>9.737352999159825</v>
+        <v>9.727501047582635</v>
       </c>
       <c r="P3" t="n">
-        <v>437.0653082345491</v>
+        <v>437.0344571763654</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25470,28 +25532,28 @@
         <v>0.0743</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2517026171486855</v>
+        <v>-0.2485391467394734</v>
       </c>
       <c r="J4" t="n">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="K4" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02555196739707077</v>
+        <v>0.02503678420888389</v>
       </c>
       <c r="M4" t="n">
-        <v>8.970223897842168</v>
+        <v>8.959327589805531</v>
       </c>
       <c r="N4" t="n">
-        <v>143.5221917322809</v>
+        <v>143.3321593647341</v>
       </c>
       <c r="O4" t="n">
-        <v>11.98007477991189</v>
+        <v>11.97214096829527</v>
       </c>
       <c r="P4" t="n">
-        <v>172.9349339155657</v>
+        <v>172.9038322767134</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25529,7 +25591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E802"/>
+  <dimension ref="A1:E804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45663,6 +45725,60 @@
         </is>
       </c>
     </row>
+    <row r="803">
+      <c r="A803" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-30 22:00:32+00:00</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>-39.336219157099315,176.93769071417776</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>-39.33669357915912,176.93592299678684</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-07 22:00:37+00:00</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>-39.336157671153885,176.9376804877478</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>-39.33815780276676,176.93707851525744</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>-39.3366156633797,176.93579804403896</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
